--- a/cleaned_resources/Exports_calendar_year.xlsx
+++ b/cleaned_resources/Exports_calendar_year.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandrabotica/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandrabotica/Desktop/Project-3/cleaned_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAB0D24-D410-A649-992F-46A3114C2D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FABB68D-16C1-2B47-8D8F-8649A043C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="500" windowWidth="19200" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>© International Coffee Organization</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>2014</t>
@@ -683,7 +680,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -695,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -770,22 +767,22 @@
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -885,7 +882,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>156.44200000000001</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4">
         <v>1.68</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4">
         <v>1838.636</v>
@@ -3450,7 +3447,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4">
         <v>98.332999200000003</v>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="4">
         <v>1145.2340013999999</v>
@@ -6014,99 +6011,37 @@
       </c>
     </row>
     <row r="57" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="7">
-        <v>80674.672600699952</v>
-      </c>
-      <c r="C57" s="7">
-        <v>75943.178393200025</v>
-      </c>
-      <c r="D57" s="7">
-        <v>78299.237206300037</v>
-      </c>
-      <c r="E57" s="7">
-        <v>75166.345321800036</v>
-      </c>
-      <c r="F57" s="7">
-        <v>70709.824436699972</v>
-      </c>
-      <c r="G57" s="7">
-        <v>67876.413730500019</v>
-      </c>
-      <c r="H57" s="7">
-        <v>77669.705455599949</v>
-      </c>
-      <c r="I57" s="7">
-        <v>80439.194392899968</v>
-      </c>
-      <c r="J57" s="7">
-        <v>80243.248756099987</v>
-      </c>
-      <c r="K57" s="7">
-        <v>86142.970653600016</v>
-      </c>
-      <c r="L57" s="7">
-        <v>89562.169784599973</v>
-      </c>
-      <c r="M57" s="7">
-        <v>90859.045008700006</v>
-      </c>
-      <c r="N57" s="7">
-        <v>88847.246306099958</v>
-      </c>
-      <c r="O57" s="7">
-        <v>86372.469990400015</v>
-      </c>
-      <c r="P57" s="7">
-        <v>91096.890001599982</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>87562.326618800042</v>
-      </c>
-      <c r="R57" s="7">
-        <v>91759.928746099991</v>
-      </c>
-      <c r="S57" s="7">
-        <v>96302.144810499958</v>
-      </c>
-      <c r="T57" s="7">
-        <v>97598.586499099954</v>
-      </c>
-      <c r="U57" s="7">
-        <v>96241.868835099973</v>
-      </c>
-      <c r="V57" s="7">
-        <v>97046.44491510003</v>
-      </c>
-      <c r="W57" s="7">
-        <v>102184.93791449998</v>
-      </c>
-      <c r="X57" s="7">
-        <v>108443.68979370002</v>
-      </c>
-      <c r="Y57" s="7">
-        <v>108566.75934480001</v>
-      </c>
-      <c r="Z57" s="7">
-        <v>115547.75144640003</v>
-      </c>
-      <c r="AA57" s="7">
-        <v>116395.85194920002</v>
-      </c>
-      <c r="AB57" s="7">
-        <v>121334.36073700001</v>
-      </c>
-      <c r="AC57" s="7">
-        <v>119518.58086240003</v>
-      </c>
-      <c r="AD57" s="7">
-        <v>126597.74046689998</v>
-      </c>
-      <c r="AE57" s="7">
-        <v>131694.06325579999</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
